--- a/data/144/SCB/old/ImportExportSnabbM.xlsx
+++ b/data/144/SCB/old/ImportExportSnabbM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="583">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="585">
   <x:si>
     <x:t>Imports of goods, exports of goods and Net Trade of goods by imports of goods/exports of goods and month</x:t>
   </x:si>
@@ -1697,6 +1697,12 @@
   </x:si>
   <x:si>
     <x:t>2021M08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M10</x:t>
   </x:si>
   <x:si>
     <x:t>Total imports, SEK million</x:t>
@@ -1718,7 +1724,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20210928 09:30</x:t>
+    <x:t>20211129 09:30</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -2159,22 +2165,22 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:UO42"/>
+  <x:dimension ref="A1:UQ42"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="561" width="10.840625000000001" style="0" customWidth="1"/>
+    <x:col min="2" max="563" width="10.840625000000001" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:561">
+    <x:row r="1" spans="1:563">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:561">
+    <x:row r="3" spans="1:563">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3855,10 +3861,16 @@
       <x:c r="UO3" s="2" t="s">
         <x:v>560</x:v>
       </x:c>
+      <x:c r="UP3" s="2" t="s">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c r="UQ3" s="2" t="s">
+        <x:v>562</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:561">
+    <x:row r="4" spans="1:563">
       <x:c r="A4" s="2" t="s">
-        <x:v>561</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
         <x:v>7975</x:v>
@@ -5481,69 +5493,75 @@
         <x:v>119800</x:v>
       </x:c>
       <x:c r="TV4" s="3" t="n">
-        <x:v>120200</x:v>
+        <x:v>120300</x:v>
       </x:c>
       <x:c r="TW4" s="3" t="n">
         <x:v>114800</x:v>
       </x:c>
       <x:c r="TX4" s="3" t="n">
-        <x:v>125500</x:v>
+        <x:v>125600</x:v>
       </x:c>
       <x:c r="TY4" s="3" t="n">
         <x:v>101000</x:v>
       </x:c>
       <x:c r="TZ4" s="3" t="n">
-        <x:v>101200</x:v>
+        <x:v>101500</x:v>
       </x:c>
       <x:c r="UA4" s="3" t="n">
-        <x:v>114400</x:v>
+        <x:v>115100</x:v>
       </x:c>
       <x:c r="UB4" s="3" t="n">
-        <x:v>100200</x:v>
+        <x:v>100600</x:v>
       </x:c>
       <x:c r="UC4" s="3" t="n">
-        <x:v>105700</x:v>
+        <x:v>105800</x:v>
       </x:c>
       <x:c r="UD4" s="3" t="n">
-        <x:v>121800</x:v>
+        <x:v>121900</x:v>
       </x:c>
       <x:c r="UE4" s="3" t="n">
-        <x:v>124400</x:v>
+        <x:v>124600</x:v>
       </x:c>
       <x:c r="UF4" s="3" t="n">
-        <x:v>126700</x:v>
+        <x:v>126800</x:v>
       </x:c>
       <x:c r="UG4" s="3" t="n">
-        <x:v>118400</x:v>
+        <x:v>118500</x:v>
       </x:c>
       <x:c r="UH4" s="3" t="n">
         <x:v>109600</x:v>
       </x:c>
       <x:c r="UI4" s="3" t="n">
-        <x:v>117800</x:v>
+        <x:v>117900</x:v>
       </x:c>
       <x:c r="UJ4" s="3" t="n">
-        <x:v>141200</x:v>
+        <x:v>141100</x:v>
       </x:c>
       <x:c r="UK4" s="3" t="n">
-        <x:v>130300</x:v>
+        <x:v>129900</x:v>
       </x:c>
       <x:c r="UL4" s="3" t="n">
-        <x:v>130400</x:v>
+        <x:v>130200</x:v>
       </x:c>
       <x:c r="UM4" s="3" t="n">
-        <x:v>134900</x:v>
+        <x:v>135300</x:v>
       </x:c>
       <x:c r="UN4" s="3" t="n">
-        <x:v>120600</x:v>
+        <x:v>120400</x:v>
       </x:c>
       <x:c r="UO4" s="3" t="n">
-        <x:v>125300</x:v>
+        <x:v>126700</x:v>
+      </x:c>
+      <x:c r="UP4" s="3" t="n">
+        <x:v>140200</x:v>
+      </x:c>
+      <x:c r="UQ4" s="3" t="n">
+        <x:v>144400</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:561">
+    <x:row r="5" spans="1:563">
       <x:c r="A5" s="2" t="s">
-        <x:v>562</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
         <x:v>6200</x:v>
@@ -7169,167 +7187,173 @@
         <x:v>131300</x:v>
       </x:c>
       <x:c r="TW5" s="3" t="n">
-        <x:v>127600</x:v>
+        <x:v>127700</x:v>
       </x:c>
       <x:c r="TX5" s="3" t="n">
         <x:v>131100</x:v>
       </x:c>
       <x:c r="TY5" s="3" t="n">
-        <x:v>106400</x:v>
+        <x:v>106300</x:v>
       </x:c>
       <x:c r="TZ5" s="3" t="n">
         <x:v>102300</x:v>
       </x:c>
       <x:c r="UA5" s="3" t="n">
-        <x:v>119500</x:v>
+        <x:v>119600</x:v>
       </x:c>
       <x:c r="UB5" s="3" t="n">
-        <x:v>104100</x:v>
+        <x:v>103800</x:v>
       </x:c>
       <x:c r="UC5" s="3" t="n">
-        <x:v>103900</x:v>
+        <x:v>103800</x:v>
       </x:c>
       <x:c r="UD5" s="3" t="n">
         <x:v>124700</x:v>
       </x:c>
       <x:c r="UE5" s="3" t="n">
-        <x:v>128700</x:v>
+        <x:v>128600</x:v>
       </x:c>
       <x:c r="UF5" s="3" t="n">
-        <x:v>128400</x:v>
+        <x:v>128200</x:v>
       </x:c>
       <x:c r="UG5" s="3" t="n">
-        <x:v>119800</x:v>
+        <x:v>119700</x:v>
       </x:c>
       <x:c r="UH5" s="3" t="n">
         <x:v>114200</x:v>
       </x:c>
       <x:c r="UI5" s="3" t="n">
-        <x:v>123400</x:v>
+        <x:v>123600</x:v>
       </x:c>
       <x:c r="UJ5" s="3" t="n">
-        <x:v>144000</x:v>
+        <x:v>143800</x:v>
       </x:c>
       <x:c r="UK5" s="3" t="n">
-        <x:v>131600</x:v>
+        <x:v>131700</x:v>
       </x:c>
       <x:c r="UL5" s="3" t="n">
         <x:v>133800</x:v>
       </x:c>
       <x:c r="UM5" s="3" t="n">
-        <x:v>144000</x:v>
+        <x:v>144200</x:v>
       </x:c>
       <x:c r="UN5" s="3" t="n">
-        <x:v>127200</x:v>
+        <x:v>127100</x:v>
       </x:c>
       <x:c r="UO5" s="3" t="n">
-        <x:v>115000</x:v>
+        <x:v>116000</x:v>
+      </x:c>
+      <x:c r="UP5" s="3" t="n">
+        <x:v>147000</x:v>
+      </x:c>
+      <x:c r="UQ5" s="3" t="n">
+        <x:v>145200</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:561">
+    <x:row r="7" spans="1:563">
       <x:c r="A7" s="4" t="s">
-        <x:v>563</x:v>
+        <x:v>565</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:561">
+    <x:row r="8" spans="1:563">
       <x:c r="A8" s="4" t="s">
-        <x:v>564</x:v>
+        <x:v>566</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:561">
+    <x:row r="9" spans="1:563">
       <x:c r="A9" s="4" t="s">
-        <x:v>565</x:v>
+        <x:v>567</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:561">
+    <x:row r="11" spans="1:563">
       <x:c r="A11" s="0" t="s">
-        <x:v>566</x:v>
+        <x:v>568</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:561">
+    <x:row r="12" spans="1:563">
       <x:c r="A12" s="0" t="s">
-        <x:v>567</x:v>
+        <x:v>569</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:561">
+    <x:row r="14" spans="1:563">
       <x:c r="A14" s="0" t="s">
-        <x:v>568</x:v>
+        <x:v>570</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:561">
+    <x:row r="15" spans="1:563">
       <x:c r="A15" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>571</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:561">
+    <x:row r="17" spans="1:563">
       <x:c r="A17" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:561">
+    <x:row r="18" spans="1:563">
       <x:c r="A18" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>573</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:561">
+    <x:row r="19" spans="1:563">
       <x:c r="A19" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>574</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:561">
+    <x:row r="20" spans="1:563">
       <x:c r="A20" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>575</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:561">
+    <x:row r="21" spans="1:563">
       <x:c r="A21" s="0" t="s"/>
     </x:row>
-    <x:row r="22" spans="1:561">
+    <x:row r="22" spans="1:563">
       <x:c r="A22" s="0" t="s"/>
     </x:row>
-    <x:row r="25" spans="1:561">
+    <x:row r="25" spans="1:563">
       <x:c r="A25" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>576</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:561">
+    <x:row r="26" spans="1:563">
       <x:c r="A26" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>577</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:561">
+    <x:row r="28" spans="1:563">
       <x:c r="A28" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>578</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:561">
+    <x:row r="29" spans="1:563">
       <x:c r="A29" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>579</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:561">
+    <x:row r="36" spans="1:563">
       <x:c r="A36" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>580</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:561">
+    <x:row r="38" spans="1:563">
       <x:c r="A38" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>581</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:561">
+    <x:row r="39" spans="1:563">
       <x:c r="A39" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>582</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:561">
+    <x:row r="41" spans="1:563">
       <x:c r="A41" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>583</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:561">
+    <x:row r="42" spans="1:563">
       <x:c r="A42" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>584</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
